--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2726FA-61E1-4BF1-9DEA-2D420318BB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -448,7 +447,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{F1E0B58E-E4E3-4D60-BC0F-0AC4D1475906}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -540,23 +539,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -592,23 +574,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,11 +983,11 @@
         <v>3.044578</v>
       </c>
       <c r="I9" s="19">
-        <v>4.2524689999999996</v>
+        <v>4.0861470000000004</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>39.673511402893922</v>
+        <v>34.210619665516873</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1100,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>21.673632014353</v>
+        <v>20.990770547180869</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1109,7 +1074,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(J4:J11)</f>
-        <v>39.673511402893922</v>
+        <v>34.872770180968246</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,11 +833,11 @@
         <v>157.03273300000001</v>
       </c>
       <c r="I4" s="20">
-        <v>157.620295</v>
+        <v>157.29623599999999</v>
       </c>
       <c r="J4" s="21">
         <f>100*(I4-G4)/G4</f>
-        <v>0.37416530221122191</v>
+        <v>0.16780132076029386</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J13" s="4">
         <f>MIN(J4:J11)</f>
-        <v>0.37416530221122191</v>
+        <v>0.16780132076029386</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>20.990770547180869</v>
+        <v>20.964975049499504</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,11 +863,11 @@
         <v>34.708820000000003</v>
       </c>
       <c r="I5" s="19">
-        <v>40.869287999999997</v>
+        <v>40.478214999999999</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J11" si="0">100*(I5-G5)/G5</f>
-        <v>17.748998669502431</v>
+        <v>16.622273531626821</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>20.964975049499504</v>
+        <v>20.824134407265053</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,11 +893,11 @@
         <v>32.626666999999998</v>
       </c>
       <c r="I6" s="19">
-        <v>40.747556000000003</v>
+        <v>40.745778000000001</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>24.890342001529014</v>
+        <v>24.884892471547904</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>20.824134407265053</v>
+        <v>20.823453216017416</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,11 +893,11 @@
         <v>32.626666999999998</v>
       </c>
       <c r="I6" s="19">
-        <v>40.745778000000001</v>
+        <v>40.627555999999998</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>24.884892471547904</v>
+        <v>24.522544702466856</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>20.823453216017416</v>
+        <v>20.778159744882284</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,11 +923,11 @@
         <v>7.7172020000000003</v>
       </c>
       <c r="I7" s="19">
-        <v>9.5454129999999999</v>
+        <v>9.5362390000000001</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>23.690075755435707</v>
+        <v>23.571198473229025</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -953,11 +953,11 @@
         <v>12.901103000000001</v>
       </c>
       <c r="I8" s="19">
-        <v>17.400075000000001</v>
+        <v>15.975322</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>34.872770180968246</v>
+        <v>23.829117556847653</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1013,11 +1013,11 @@
         <v>10.050300999999999</v>
       </c>
       <c r="I10" s="19">
-        <v>11.653206000000001</v>
+        <v>11.069075</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>15.948825811286664</v>
+        <v>10.136751128150298</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1043,11 +1043,11 @@
         <v>24.768999999999998</v>
       </c>
       <c r="I11" s="19">
-        <v>28.779191999999998</v>
+        <v>28.429247</v>
       </c>
       <c r="J11" s="31">
         <f t="shared" si="0"/>
-        <v>16.190366990996811</v>
+        <v>14.777532399370187</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="J14" s="4">
         <f>AVERAGE(J4:J11)</f>
-        <v>20.778159744882284</v>
+        <v>18.479729847246002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="J15" s="4">
         <f>MAX(J4:J11)</f>
-        <v>34.872770180968246</v>
+        <v>34.210619665516873</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
